--- a/util/data/优秀共产党员.xlsx
+++ b/util/data/优秀共产党员.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="504">
   <si>
     <t>焦裕禄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,6 +1654,46 @@
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀共产党员先进事迹选编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000万多万中国共产党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国优秀共产党员.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党誓词：我志愿加入中国共产党，拥护党的纲领，遵守党的章程，履行党员义务，执行党的决定，严守党的纪律，保守党的秘密，对党忠诚，积极工作，为共产主义奋斗终身，随时准备为党和人民牺牲一切，永不叛党。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,6 +1808,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2049,679 +2098,802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L23:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="50.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1" t="str">
+        <f>A3&amp;".png"</f>
+        <v>焦裕禄.png</v>
+      </c>
+      <c r="C3" s="1">
         <v>1922</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>1964</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2-B2</f>
+      <c r="E3" s="1">
+        <f>D3-C3</f>
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4:B20" si="0">A4&amp;".png"</f>
+        <v>孔繁森.png</v>
+      </c>
+      <c r="C4" s="1">
         <v>1944</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>1994</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E12" si="1">D4-C4</f>
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>谷文昌.png</v>
+      </c>
+      <c r="C5" s="1">
         <v>1915</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>1981</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>杨善洲.png</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1927</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>王瑛.png</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>兰辉.png</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1965</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>甘祖昌.png</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1905</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1986</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>高德荣.png</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1954</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>邹碧华.png</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1967</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>廖俊波.png</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1968</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>韦昌进.png</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1965</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>孙家栋.png</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1929</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>李保国.png</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1958</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E19" si="2">D15-C15</f>
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>黄大年.png</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1958</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>王继才.png</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1960</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>张富清.png</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1924</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>黄文秀.png</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1989</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>郭明义.png</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1958</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1927</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1961</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1965</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1905</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1986</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1954</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1967</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1968</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
+      <c r="H20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1965</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1929</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1958</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:D18" si="1">C14-B14</f>
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1958</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1960</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1924</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1958</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -2735,11 +2907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="55.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -2776,7 +2951,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -2848,7 +3023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="285" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2884,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
@@ -2920,7 +3095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -2956,7 +3131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -2992,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -3028,7 +3203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -3095,7 +3270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -3131,7 +3306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3193,7 +3368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -3229,7 +3404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -3265,7 +3440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -3301,7 +3476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3332,7 +3507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>139</v>
       </c>
@@ -3368,7 +3543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
